--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBA01A7-B36E-42F6-B60E-029D803AD89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D3E82-9CCA-47CC-A48E-4A4CF367B15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,27 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
-    <t>Код производителя</t>
-  </si>
-  <si>
-    <t>Производитель</t>
-  </si>
-  <si>
-    <t>Страна</t>
-  </si>
-  <si>
-    <t>Код товара</t>
-  </si>
-  <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>Процессор</t>
-  </si>
-  <si>
-    <t>Кол-во смартфонов</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -129,13 +108,34 @@
     <t>Mi 10</t>
   </si>
   <si>
-    <t>Внутренняя память</t>
-  </si>
-  <si>
-    <t>Диагональ экрана</t>
-  </si>
-  <si>
-    <t>Оперативная память</t>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Diagonal</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ManufacturerCode</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -517,34 +517,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>256</v>
@@ -570,7 +570,7 @@
         <v>6.5</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>64</v>
@@ -602,7 +602,7 @@
         <v>4.7</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -616,16 +616,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>256</v>
@@ -634,7 +634,7 @@
         <v>6.7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -648,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>128</v>
@@ -666,7 +666,7 @@
         <v>6.9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -680,16 +680,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>256</v>
@@ -698,7 +698,7 @@
         <v>6.57</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>256</v>
@@ -730,7 +730,7 @@
         <v>6.58</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -744,16 +744,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>512</v>
@@ -762,7 +762,7 @@
         <v>6.6</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -776,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -794,7 +794,7 @@
         <v>6.55</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -808,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>6.55</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -840,16 +840,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>128</v>
@@ -858,7 +858,7 @@
         <v>6.78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
         <v>8</v>
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>256</v>
@@ -890,7 +890,7 @@
         <v>6.78</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1">
         <v>12</v>
@@ -904,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>128</v>
@@ -922,7 +922,7 @@
         <v>6.89</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>8</v>
@@ -936,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>128</v>
@@ -954,7 +954,7 @@
         <v>6.47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -968,16 +968,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>128</v>
@@ -986,7 +986,7 @@
         <v>6.67</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -1000,16 +1000,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>256</v>
@@ -1018,7 +1018,7 @@
         <v>6.67</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>8</v>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D3E82-9CCA-47CC-A48E-4A4CF367B15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B108D15-0021-440A-8171-5F041FFCD81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Apple</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>ManufacturerCode</t>
   </si>
   <si>
     <t>ProductCode</t>
@@ -499,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -515,7 +512,7 @@
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -526,28 +523,25 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,31 +551,28 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
       <c r="F2">
-        <v>256</v>
-      </c>
-      <c r="G2">
         <v>6.5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
       <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -589,31 +580,28 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>4.7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>4.7</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -621,31 +609,28 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E4">
+        <v>256</v>
+      </c>
       <c r="F4">
-        <v>256</v>
-      </c>
-      <c r="G4">
         <v>6.7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -653,31 +638,28 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
       <c r="F5">
-        <v>128</v>
-      </c>
-      <c r="G5">
         <v>6.9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
       <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -685,31 +667,28 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6">
+        <v>256</v>
+      </c>
       <c r="F6">
-        <v>256</v>
-      </c>
-      <c r="G6">
         <v>6.57</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -717,31 +696,28 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
+      <c r="E7">
+        <v>256</v>
+      </c>
       <c r="F7">
-        <v>256</v>
-      </c>
-      <c r="G7">
         <v>6.58</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
       <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -749,31 +725,28 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
       <c r="F8">
-        <v>512</v>
-      </c>
-      <c r="G8">
         <v>6.6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
       <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -785,27 +758,24 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>128</v>
-      </c>
-      <c r="G9">
         <v>6.55</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
       <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -814,30 +784,27 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="F10">
-        <v>256</v>
-      </c>
-      <c r="G10">
         <v>6.55</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
       <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -845,31 +812,28 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="1">
+        <v>128</v>
+      </c>
       <c r="F11" s="1">
-        <v>128</v>
-      </c>
-      <c r="G11" s="1">
         <v>6.78</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
       <c r="I11" s="1">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -877,31 +841,28 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="1">
+        <v>256</v>
+      </c>
       <c r="F12" s="1">
-        <v>256</v>
-      </c>
-      <c r="G12" s="1">
         <v>6.78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
       <c r="I12" s="1">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -909,31 +870,28 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
       <c r="F13">
-        <v>128</v>
-      </c>
-      <c r="G13">
         <v>6.89</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13">
         <v>8</v>
       </c>
       <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -941,31 +899,28 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
       <c r="F14">
-        <v>128</v>
-      </c>
-      <c r="G14">
         <v>6.47</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
       <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -973,31 +928,28 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
       <c r="F15">
-        <v>128</v>
-      </c>
-      <c r="G15">
         <v>6.67</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
       <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1005,25 +957,22 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E16">
+        <v>256</v>
+      </c>
       <c r="F16">
-        <v>256</v>
-      </c>
-      <c r="G16">
         <v>6.67</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
       <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
         <v>149</v>
       </c>
     </row>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B108D15-0021-440A-8171-5F041FFCD81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04B3B3-7445-4FF9-B90D-9B1065EFDAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,11 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,7 +506,7 @@
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -975,6 +973,10 @@
       <c r="I16">
         <v>149</v>
       </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04B3B3-7445-4FF9-B90D-9B1065EFDAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFB978-697E-484D-B5B8-98CA613E05D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>ProductCode</t>
+    <t>Product Code</t>
   </si>
 </sst>
 </file>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFB978-697E-484D-B5B8-98CA613E05D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBCD1D-BF1D-46F4-8484-166EB14D690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBCD1D-BF1D-46F4-8484-166EB14D690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B512E18-B939-4DE0-A40B-36702C678CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21840" yWindow="420" windowWidth="20085" windowHeight="12030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Apple</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Product Code</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Android 10</t>
+  </si>
+  <si>
+    <t>IOS 13</t>
   </si>
 </sst>
 </file>
@@ -496,21 +505,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -523,23 +535,26 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,23 +567,26 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
         <v>256</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,23 +599,26 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
         <v>64</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,23 +631,26 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
         <v>256</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -639,23 +663,26 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
         <v>128</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
       <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -668,23 +695,26 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
         <v>256</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6.57</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
       <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -697,23 +727,26 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
         <v>256</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6.58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
       <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -726,23 +759,26 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
         <v>512</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6.6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
       <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,23 +791,26 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
         <v>128</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6.55</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
       <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -784,23 +823,26 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10">
         <v>256</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6.55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
       <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -813,23 +855,26 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
         <v>128</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>6.78</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
       <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -842,23 +887,26 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
         <v>256</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>6.78</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
       <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -871,23 +919,26 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
         <v>128</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6.89</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
       <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -900,23 +951,26 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
         <v>128</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6.47</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -929,23 +983,26 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
         <v>128</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.67</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
       <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -958,19 +1015,22 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
         <v>256</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6.67</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
       <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
         <v>149</v>
       </c>
     </row>

--- a/Data/Smartphones.xlsx
+++ b/Data/Smartphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivand\github\HSEProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B512E18-B939-4DE0-A40B-36702C678CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DC33D-1136-4DFE-8848-35105DAE9BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21840" yWindow="420" windowWidth="20085" windowHeight="12030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,10 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Android 10</t>
-  </si>
-  <si>
-    <t>IOS 13</t>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>256</v>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>64</v>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>256</v>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>128</v>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>256</v>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>256</v>
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>512</v>
@@ -792,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>128</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>256</v>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>128</v>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>256</v>
@@ -920,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>128</v>
@@ -952,7 +952,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>128</v>
@@ -984,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>128</v>
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>256</v>
